--- a/biology/Zoologie/Furculoborus_patellaris/Furculoborus_patellaris.xlsx
+++ b/biology/Zoologie/Furculoborus_patellaris/Furculoborus_patellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furculoborus patellaris, unique représentant du genre Furculoborus, est une espèce fossile d'araignées aranéomorphes de la famille des Uloboridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furculoborus patellaris, unique représentant du genre Furculoborus, est une espèce fossile d'araignées aranéomorphes de la famille des Uloboridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de Birmanie. Elle date du Crétacé.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wunderlich, 2017 : New and rare fossil spiders (Araneae) in mid Cretaceous amber from Myanmar (Burma), including the description of new extinct families of the suborders Mesothelae and Opisthothelae as well as notes on the taxonomy, the evolution and the biogeography of the Mesothelae. Beiträge zur Araneologie, vol. 10, p. 72–279.</t>
         </is>
